--- a/public/template_import_mitra.xlsx
+++ b/public/template_import_mitra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -40,16 +40,13 @@
     <t>Nomor Induk Kependudukan (NIK)</t>
   </si>
   <si>
-    <t>PCL / PML</t>
-  </si>
-  <si>
     <t>5171xxxxxxxxxxxx</t>
   </si>
   <si>
-    <t>PCL</t>
-  </si>
-  <si>
     <t>xxxxxx</t>
+  </si>
+  <si>
+    <t>1 = PML ; 2 = PCL</t>
   </si>
 </sst>
 </file>
@@ -470,7 +467,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,13 +501,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +521,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
